--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H2">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I2">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J2">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>4608.521139437127</v>
+        <v>4706.330048287394</v>
       </c>
       <c r="R2">
-        <v>4608.521139437127</v>
+        <v>18825.32019314958</v>
       </c>
       <c r="S2">
-        <v>0.008729761760153026</v>
+        <v>0.008068309036526526</v>
       </c>
       <c r="T2">
-        <v>0.008729761760153026</v>
+        <v>0.004642768381573434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H3">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I3">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J3">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>3118.735105451724</v>
+        <v>3396.241314690292</v>
       </c>
       <c r="R3">
-        <v>3118.735105451724</v>
+        <v>20377.44788814175</v>
       </c>
       <c r="S3">
-        <v>0.005907711745235601</v>
+        <v>0.005822355042760296</v>
       </c>
       <c r="T3">
-        <v>0.005907711745235601</v>
+        <v>0.005025559713276595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H4">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I4">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J4">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>2352.862138201908</v>
+        <v>2417.316121849511</v>
       </c>
       <c r="R4">
-        <v>2352.862138201908</v>
+        <v>14503.89673109706</v>
       </c>
       <c r="S4">
-        <v>0.00445694514563854</v>
+        <v>0.004144132117796739</v>
       </c>
       <c r="T4">
-        <v>0.00445694514563854</v>
+        <v>0.003577003337093184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H5">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I5">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J5">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>2212.276952082729</v>
+        <v>2277.300471271844</v>
       </c>
       <c r="R5">
-        <v>2212.276952082729</v>
+        <v>13663.80282763107</v>
       </c>
       <c r="S5">
-        <v>0.004190639503395767</v>
+        <v>0.003904095926705123</v>
       </c>
       <c r="T5">
-        <v>0.004190639503395767</v>
+        <v>0.003369816347839007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H6">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I6">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J6">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>3250.446732964616</v>
+        <v>3481.142995173826</v>
       </c>
       <c r="R6">
-        <v>3250.446732964616</v>
+        <v>20886.85797104295</v>
       </c>
       <c r="S6">
-        <v>0.006157208513166237</v>
+        <v>0.00596790645730906</v>
       </c>
       <c r="T6">
-        <v>0.006157208513166237</v>
+        <v>0.005151192265705055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H7">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I7">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J7">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>3908.212512740154</v>
+        <v>4000.883397930034</v>
       </c>
       <c r="R7">
-        <v>3908.212512740154</v>
+        <v>16003.53359172014</v>
       </c>
       <c r="S7">
-        <v>0.007403191416940669</v>
+        <v>0.00685892475504443</v>
       </c>
       <c r="T7">
-        <v>0.007403191416940669</v>
+        <v>0.00394684918985464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H8">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I8">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J8">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>39620.31127742452</v>
+        <v>42598.50455793369</v>
       </c>
       <c r="R8">
-        <v>39620.31127742452</v>
+        <v>255591.0273476022</v>
       </c>
       <c r="S8">
-        <v>0.07505138152784185</v>
+        <v>0.07302885597502082</v>
       </c>
       <c r="T8">
-        <v>0.07505138152784185</v>
+        <v>0.06303478125249276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H9">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I9">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J9">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>26812.34433589267</v>
+        <v>30740.47073607246</v>
       </c>
       <c r="R9">
-        <v>26812.34433589267</v>
+        <v>276664.2366246522</v>
       </c>
       <c r="S9">
-        <v>0.05078969396072241</v>
+        <v>0.0527000051594739</v>
       </c>
       <c r="T9">
-        <v>0.05078969396072241</v>
+        <v>0.06823193214957926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H10">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I10">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J10">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>20227.99234025256</v>
+        <v>21879.90446442333</v>
       </c>
       <c r="R10">
-        <v>20227.99234025256</v>
+        <v>196919.1401798099</v>
       </c>
       <c r="S10">
-        <v>0.03831718433609547</v>
+        <v>0.03750987055675865</v>
       </c>
       <c r="T10">
-        <v>0.03831718433609547</v>
+        <v>0.04856490877037718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H11">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I11">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J11">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>19019.3554117222</v>
+        <v>20612.57784939232</v>
       </c>
       <c r="R11">
-        <v>19019.3554117222</v>
+        <v>185513.2006445309</v>
       </c>
       <c r="S11">
-        <v>0.03602770532073354</v>
+        <v>0.03533722591106361</v>
       </c>
       <c r="T11">
-        <v>0.03602770532073354</v>
+        <v>0.04575193481332321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H12">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I12">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J12">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>27944.69363472964</v>
+        <v>31508.94310965156</v>
       </c>
       <c r="R12">
-        <v>27944.69363472964</v>
+        <v>283580.4879868641</v>
       </c>
       <c r="S12">
-        <v>0.05293466396498943</v>
+        <v>0.054017437751845</v>
       </c>
       <c r="T12">
-        <v>0.05293466396498943</v>
+        <v>0.06993764301207903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H13">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I13">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J13">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>33599.62808199306</v>
+        <v>36213.28039339335</v>
       </c>
       <c r="R13">
-        <v>33599.62808199306</v>
+        <v>217279.6823603601</v>
       </c>
       <c r="S13">
-        <v>0.06364661016209894</v>
+        <v>0.06208233048734162</v>
       </c>
       <c r="T13">
-        <v>0.06364661016209894</v>
+        <v>0.05358629913705732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H14">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I14">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J14">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>25591.51511817521</v>
+        <v>27770.4539524288</v>
       </c>
       <c r="R14">
-        <v>25591.51511817521</v>
+        <v>166622.7237145728</v>
       </c>
       <c r="S14">
-        <v>0.04847711951481044</v>
+        <v>0.04760834923899131</v>
       </c>
       <c r="T14">
-        <v>0.04847711951481044</v>
+        <v>0.04109309724225407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H15">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I15">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J15">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>17318.60485954063</v>
+        <v>20040.06562932486</v>
       </c>
       <c r="R15">
-        <v>17318.60485954063</v>
+        <v>180360.5906639238</v>
       </c>
       <c r="S15">
-        <v>0.0328060325357396</v>
+        <v>0.0343557381124395</v>
       </c>
       <c r="T15">
-        <v>0.0328060325357396</v>
+        <v>0.04448117955099053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H16">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I16">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J16">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>13065.64625808149</v>
+        <v>14263.76079907822</v>
       </c>
       <c r="R16">
-        <v>13065.64625808149</v>
+        <v>128373.847191704</v>
       </c>
       <c r="S16">
-        <v>0.02474980055953856</v>
+        <v>0.02445311505340221</v>
       </c>
       <c r="T16">
-        <v>0.02474980055953856</v>
+        <v>0.03166002132486795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H17">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I17">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J17">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>12284.96460183985</v>
+        <v>13437.57603577175</v>
       </c>
       <c r="R17">
-        <v>12284.96460183985</v>
+        <v>120938.1843219457</v>
       </c>
       <c r="S17">
-        <v>0.02327098237398421</v>
+        <v>0.02303674307709939</v>
       </c>
       <c r="T17">
-        <v>0.02327098237398421</v>
+        <v>0.02982621132251189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H18">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I18">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J18">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>18050.01087998634</v>
+        <v>20541.04158812099</v>
       </c>
       <c r="R18">
-        <v>18050.01087998634</v>
+        <v>184869.3742930889</v>
       </c>
       <c r="S18">
-        <v>0.03419150959339991</v>
+        <v>0.03521458753735567</v>
       </c>
       <c r="T18">
-        <v>0.03419150959339991</v>
+        <v>0.04559315203581771</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H19">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I19">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J19">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>21702.64095111583</v>
+        <v>23607.85304712828</v>
       </c>
       <c r="R19">
-        <v>21702.64095111583</v>
+        <v>141647.1182827697</v>
       </c>
       <c r="S19">
-        <v>0.04111056005539384</v>
+        <v>0.04047218365878277</v>
       </c>
       <c r="T19">
-        <v>0.04111056005539384</v>
+        <v>0.03493352332692566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H20">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I20">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J20">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>18876.45532404128</v>
+        <v>20662.11515764169</v>
       </c>
       <c r="R20">
-        <v>18876.45532404128</v>
+        <v>123972.6909458501</v>
       </c>
       <c r="S20">
-        <v>0.03575701464074855</v>
+        <v>0.03542215032301364</v>
       </c>
       <c r="T20">
-        <v>0.03575701464074855</v>
+        <v>0.03057459229359705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H21">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I21">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J21">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>12774.30700746855</v>
+        <v>14910.45643362963</v>
       </c>
       <c r="R21">
-        <v>12774.30700746855</v>
+        <v>134194.1079026667</v>
       </c>
       <c r="S21">
-        <v>0.02419792672142849</v>
+        <v>0.02556177937966043</v>
       </c>
       <c r="T21">
-        <v>0.02419792672142849</v>
+        <v>0.03309543501898429</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H22">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I22">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J22">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>9637.299188090761</v>
+        <v>10612.69897555395</v>
       </c>
       <c r="R22">
-        <v>9637.299188090761</v>
+        <v>95514.29077998555</v>
       </c>
       <c r="S22">
-        <v>0.01825560160794318</v>
+        <v>0.01819390781518961</v>
       </c>
       <c r="T22">
-        <v>0.01825560160794318</v>
+        <v>0.02355607897618108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H23">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I23">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J23">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>9061.463707530327</v>
+        <v>9997.990813052549</v>
       </c>
       <c r="R23">
-        <v>9061.463707530327</v>
+        <v>89981.91731747295</v>
       </c>
       <c r="S23">
-        <v>0.01716481642843768</v>
+        <v>0.01714008129400429</v>
       </c>
       <c r="T23">
-        <v>0.01716481642843768</v>
+        <v>0.02219166507387963</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H24">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I24">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J24">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>13313.79648298119</v>
+        <v>15283.19873627932</v>
       </c>
       <c r="R24">
-        <v>13313.79648298119</v>
+        <v>137548.7886265139</v>
       </c>
       <c r="S24">
-        <v>0.02521986292413636</v>
+        <v>0.02620079110597542</v>
       </c>
       <c r="T24">
-        <v>0.02521986292413636</v>
+        <v>0.03392277848167977</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H25">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I25">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J25">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>16007.99837116708</v>
+        <v>17565.00556742914</v>
       </c>
       <c r="R25">
-        <v>16007.99837116708</v>
+        <v>105390.0334045749</v>
       </c>
       <c r="S25">
-        <v>0.03032339611970937</v>
+        <v>0.0301126125223407</v>
       </c>
       <c r="T25">
-        <v>0.03032339611970937</v>
+        <v>0.02599167025067559</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H26">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I26">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J26">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>3995.82753381508</v>
+        <v>4287.015991505276</v>
       </c>
       <c r="R26">
-        <v>3995.82753381508</v>
+        <v>25722.09594903166</v>
       </c>
       <c r="S26">
-        <v>0.007569157512669224</v>
+        <v>0.007349456903597841</v>
       </c>
       <c r="T26">
-        <v>0.007569157512669224</v>
+        <v>0.006343676099778593</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H27">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I27">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J27">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>2704.105553167049</v>
+        <v>3093.650610497747</v>
       </c>
       <c r="R27">
-        <v>2704.105553167049</v>
+        <v>27842.85549447972</v>
       </c>
       <c r="S27">
-        <v>0.00512229336466456</v>
+        <v>0.005303607889892415</v>
       </c>
       <c r="T27">
-        <v>0.00512229336466456</v>
+        <v>0.006866705469877131</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H28">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I28">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J28">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>2040.053854726702</v>
+        <v>2201.943502594645</v>
       </c>
       <c r="R28">
-        <v>2040.053854726702</v>
+        <v>19817.49152335181</v>
       </c>
       <c r="S28">
-        <v>0.003864403263173728</v>
+        <v>0.003774907513418056</v>
       </c>
       <c r="T28">
-        <v>0.003864403263173728</v>
+        <v>0.004887461254454439</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H29">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I29">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J29">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1918.159186015224</v>
+        <v>2074.402652945586</v>
       </c>
       <c r="R29">
-        <v>1918.159186015224</v>
+        <v>18669.62387651028</v>
       </c>
       <c r="S29">
-        <v>0.003633502419825541</v>
+        <v>0.00355625752941954</v>
       </c>
       <c r="T29">
-        <v>0.003633502419825541</v>
+        <v>0.004604369994262953</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H30">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I30">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J30">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>2818.306385020865</v>
+        <v>3170.987911155406</v>
       </c>
       <c r="R30">
-        <v>2818.306385020865</v>
+        <v>28538.89120039866</v>
       </c>
       <c r="S30">
-        <v>0.005338620039693519</v>
+        <v>0.005436191290409306</v>
       </c>
       <c r="T30">
-        <v>0.005338620039693519</v>
+        <v>0.007038364306737847</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H31">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I31">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J31">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>3388.623528873536</v>
+        <v>3644.421647248366</v>
       </c>
       <c r="R31">
-        <v>3388.623528873536</v>
+        <v>21866.5298834902</v>
       </c>
       <c r="S31">
-        <v>0.006418952025362317</v>
+        <v>0.006247823634916328</v>
       </c>
       <c r="T31">
-        <v>0.006418952025362317</v>
+        <v>0.005392802487085553</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>196.779467597518</v>
+        <v>214.7823105</v>
       </c>
       <c r="H32">
-        <v>196.779467597518</v>
+        <v>429.564621</v>
       </c>
       <c r="I32">
-        <v>0.2589157509423293</v>
+        <v>0.2611182669424459</v>
       </c>
       <c r="J32">
-        <v>0.2589157509423293</v>
+        <v>0.1931265271191877</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>32384.41787895575</v>
+        <v>35348.28641377349</v>
       </c>
       <c r="R32">
-        <v>32384.41787895575</v>
+        <v>141393.1456550939</v>
       </c>
       <c r="S32">
-        <v>0.06134467962081501</v>
+        <v>0.06059942583112279</v>
       </c>
       <c r="T32">
-        <v>0.06134467962081501</v>
+        <v>0.03487088768123889</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>196.779467597518</v>
+        <v>214.7823105</v>
       </c>
       <c r="H33">
-        <v>196.779467597518</v>
+        <v>429.564621</v>
       </c>
       <c r="I33">
-        <v>0.2589157509423293</v>
+        <v>0.2611182669424459</v>
       </c>
       <c r="J33">
-        <v>0.2589157509423293</v>
+        <v>0.1931265271191877</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>21915.58156138857</v>
+        <v>25508.47677281984</v>
       </c>
       <c r="R33">
-        <v>21915.58156138857</v>
+        <v>153050.8606369191</v>
       </c>
       <c r="S33">
-        <v>0.04151392606815551</v>
+        <v>0.04373052283680413</v>
       </c>
       <c r="T33">
-        <v>0.04151392606815551</v>
+        <v>0.03774595540724272</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>196.779467597518</v>
+        <v>214.7823105</v>
       </c>
       <c r="H34">
-        <v>196.779467597518</v>
+        <v>429.564621</v>
       </c>
       <c r="I34">
-        <v>0.2589157509423293</v>
+        <v>0.2611182669424459</v>
       </c>
       <c r="J34">
-        <v>0.2589157509423293</v>
+        <v>0.1931265271191877</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>16533.7357450877</v>
+        <v>18155.96903554665</v>
       </c>
       <c r="R34">
-        <v>16533.7357450877</v>
+        <v>108935.8142132799</v>
       </c>
       <c r="S34">
-        <v>0.03131928219332646</v>
+        <v>0.03112573226556921</v>
       </c>
       <c r="T34">
-        <v>0.03131928219332646</v>
+        <v>0.02686614350572471</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>196.779467597518</v>
+        <v>214.7823105</v>
       </c>
       <c r="H35">
-        <v>196.779467597518</v>
+        <v>429.564621</v>
       </c>
       <c r="I35">
-        <v>0.2589157509423293</v>
+        <v>0.2611182669424459</v>
       </c>
       <c r="J35">
-        <v>0.2589157509423293</v>
+        <v>0.1931265271191877</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>15545.83327548325</v>
+        <v>17104.34000225537</v>
       </c>
       <c r="R35">
-        <v>15545.83327548325</v>
+        <v>102626.0400135322</v>
       </c>
       <c r="S35">
-        <v>0.02944793280792102</v>
+        <v>0.02932286932452552</v>
       </c>
       <c r="T35">
-        <v>0.02944793280792102</v>
+        <v>0.0253100042290012</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>196.779467597518</v>
+        <v>214.7823105</v>
       </c>
       <c r="H36">
-        <v>196.779467597518</v>
+        <v>429.564621</v>
       </c>
       <c r="I36">
-        <v>0.2589157509423293</v>
+        <v>0.2611182669424459</v>
       </c>
       <c r="J36">
-        <v>0.2589157509423293</v>
+        <v>0.1931265271191877</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>22841.12888033086</v>
+        <v>26146.15600227268</v>
       </c>
       <c r="R36">
-        <v>22841.12888033086</v>
+        <v>156876.9360136361</v>
       </c>
       <c r="S36">
-        <v>0.04326715825428396</v>
+        <v>0.04482372986576543</v>
       </c>
       <c r="T36">
-        <v>0.04326715825428396</v>
+        <v>0.03868955591986521</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>196.779467597518</v>
+        <v>214.7823105</v>
       </c>
       <c r="H37">
-        <v>196.779467597518</v>
+        <v>429.564621</v>
       </c>
       <c r="I37">
-        <v>0.2589157509423293</v>
+        <v>0.2611182669424459</v>
       </c>
       <c r="J37">
-        <v>0.2589157509423293</v>
+        <v>0.1931265271191877</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>27463.29751843108</v>
+        <v>30049.82030735513</v>
       </c>
       <c r="R37">
-        <v>27463.29751843108</v>
+        <v>120199.2812294205</v>
       </c>
       <c r="S37">
-        <v>0.05202277199782734</v>
+        <v>0.0515159868186589</v>
       </c>
       <c r="T37">
-        <v>0.05202277199782734</v>
+        <v>0.02964398037611496</v>
       </c>
     </row>
   </sheetData>
